--- a/JEM/data/Data dictionary.xlsx
+++ b/JEM/data/Data dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="12300" windowHeight="8070"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11550" windowHeight="6255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Variable</t>
   </si>
@@ -28,6 +29,51 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>alive</t>
+  </si>
+  <si>
+    <t>currentDisabilityState</t>
+  </si>
+  <si>
+    <t>current disability state</t>
+  </si>
+  <si>
+    <t>disabilityState</t>
+  </si>
+  <si>
+    <t>disability state</t>
+  </si>
+  <si>
+    <t>earningsToDate</t>
+  </si>
+  <si>
+    <t>earnings to date</t>
+  </si>
+  <si>
+    <t>totalEarnings</t>
+  </si>
+  <si>
+    <t>total earnings over lifetime</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>weight (scenario)</t>
+  </si>
+  <si>
+    <t>weight (base)</t>
+  </si>
+  <si>
+    <t>weightEqual</t>
+  </si>
+  <si>
+    <t>people</t>
   </si>
 </sst>
 </file>
@@ -359,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -375,12 +421,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
